--- a/documentation/scratchpad.xlsx
+++ b/documentation/scratchpad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzup\Documents\github\merrimack_university\capstone_project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C6E62F-70B4-4E56-9334-C3F3B1D945A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFB584-A3D5-4045-BDE2-6B618BA90907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" activeTab="7" xr2:uid="{69348BFA-02B8-4ABC-8417-03700D9DEBFA}"/>
+    <workbookView xWindow="1230" yWindow="8205" windowWidth="28800" windowHeight="12780" activeTab="8" xr2:uid="{69348BFA-02B8-4ABC-8417-03700D9DEBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="sdoh_category_table" sheetId="10" r:id="rId1"/>
@@ -29,10 +29,10 @@
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId11"/>
-    <pivotCache cacheId="29" r:id="rId12"/>
-    <pivotCache cacheId="33" r:id="rId13"/>
-    <pivotCache cacheId="38" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1620,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1637,7 +1637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4123,7 +4122,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AD0DE5F-D311-4F31-87FA-6CE403190AE8}" name="PivotTable3" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AD0DE5F-D311-4F31-87FA-6CE403190AE8}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:F9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -4181,7 +4180,160 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D36BEFFD-790E-4E3F-A8AB-13F04820DE4C}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBD7AD60-05CC-44FA-8B05-3561A3EF46C7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item x="0"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="24"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="27"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D36BEFFD-790E-4E3F-A8AB-13F04820DE4C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O3:O56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -4421,161 +4573,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBD7AD60-05CC-44FA-8B05-3561A3EF46C7}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item x="0"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="24"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="27"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="26"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="30">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECAEC5B1-2248-4886-BA26-4E64A28C394E}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECAEC5B1-2248-4886-BA26-4E64A28C394E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -4756,16 +4755,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC47F2ED-0996-41B9-9D44-320E799936D7}" name="Table46" displayName="Table46" ref="A1:C51" totalsRowShown="0">
-  <autoFilter ref="A1:C51" xr:uid="{FC47F2ED-0996-41B9-9D44-320E799936D7}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
-    <sortCondition ref="C1:C51"/>
-  </sortState>
+  <autoFilter ref="A1:C51" xr:uid="{FC47F2ED-0996-41B9-9D44-320E799936D7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{38C2C8EC-F4AF-409E-AF0B-137213B1FDD1}" name="variables"/>
     <tableColumn id="2" xr3:uid="{E42C5754-B1AF-4358-AD7E-D4AB61E8DF70}" name="category"/>
@@ -6866,7 +6856,7 @@
       <c r="E4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4">
         <v>23</v>
       </c>
       <c r="H4">
@@ -6890,7 +6880,7 @@
       <c r="E5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5">
         <v>26</v>
       </c>
       <c r="H5">
@@ -6914,7 +6904,7 @@
       <c r="E6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6">
         <v>4</v>
       </c>
       <c r="H6">
@@ -6935,7 +6925,7 @@
       <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7">
         <v>18</v>
       </c>
       <c r="H7">
@@ -6963,7 +6953,7 @@
       <c r="E8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8">
         <v>7</v>
       </c>
       <c r="H8">
@@ -6984,7 +6974,7 @@
       <c r="E9" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>78</v>
       </c>
     </row>
@@ -12998,7 +12988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB51746-B3C7-4E0D-A694-5FE542A6EA8C}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A41"/>
     </sheetView>
   </sheetViews>
@@ -13576,8 +13566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE23EB-EF09-49D9-9AAE-D8B309C5C830}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13607,10 +13597,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>475</v>
@@ -13618,50 +13608,50 @@
       <c r="F2" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
         <v>475</v>
@@ -13669,27 +13659,27 @@
       <c r="F5" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
         <v>475</v>
@@ -13697,40 +13687,40 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
         <v>485</v>
@@ -13741,73 +13731,73 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>481</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C17" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>486</v>
@@ -13818,18 +13808,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
         <v>486</v>
@@ -13840,95 +13830,95 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C21" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="B23" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>375</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>376</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C27" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
         <v>484</v>
@@ -13939,7 +13929,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>484</v>
@@ -13950,7 +13940,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
         <v>484</v>
@@ -13961,7 +13951,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
         <v>484</v>
@@ -13972,7 +13962,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
         <v>484</v>
@@ -13983,7 +13973,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="B34" t="s">
         <v>484</v>
@@ -13994,7 +13984,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
         <v>484</v>
@@ -14005,18 +13995,18 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
         <v>484</v>
@@ -14027,18 +14017,18 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>479</v>
       </c>
       <c r="B38" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>377</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
         <v>484</v>
@@ -14049,7 +14039,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s">
         <v>484</v>
@@ -14060,29 +14050,29 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C41" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="B42" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s">
         <v>484</v>
@@ -14093,18 +14083,18 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>390</v>
+        <v>481</v>
       </c>
       <c r="B44" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>484</v>
@@ -14113,7 +14103,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>337</v>
       </c>
@@ -14121,7 +14111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>338</v>
       </c>
@@ -14129,7 +14119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>339</v>
       </c>
@@ -14137,7 +14127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>340</v>
       </c>
@@ -14145,7 +14135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -14153,7 +14143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>480</v>
       </c>
@@ -14163,8 +14153,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/documentation/scratchpad.xlsx
+++ b/documentation/scratchpad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzup\Documents\github\merrimack_university\capstone_project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFB584-A3D5-4045-BDE2-6B618BA90907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439906C-8430-462D-AEC8-31281F1AE396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="8205" windowWidth="28800" windowHeight="12780" activeTab="8" xr2:uid="{69348BFA-02B8-4ABC-8417-03700D9DEBFA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="7" activeTab="9" xr2:uid="{69348BFA-02B8-4ABC-8417-03700D9DEBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="sdoh_category_table" sheetId="10" r:id="rId1"/>
@@ -22,17 +22,18 @@
     <sheet name="removed-NA-dups-narrowfocus" sheetId="7" r:id="rId7"/>
     <sheet name="7_25_24_variables" sheetId="16" r:id="rId8"/>
     <sheet name="finalized_features" sheetId="18" r:id="rId9"/>
-    <sheet name="regsubsets_summary" sheetId="17" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId10"/>
+    <sheet name="regsubsets_summary" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">high_correlation_0.7!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="1" r:id="rId12"/>
-    <pivotCache cacheId="2" r:id="rId13"/>
-    <pivotCache cacheId="3" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="623">
   <si>
     <t>names(chr_data)</t>
   </si>
@@ -1516,6 +1517,402 @@
   </si>
   <si>
     <t>responsible</t>
+  </si>
+  <si>
+    <t>pct_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [8] "ACS_PCT_FEMALE"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [9] "ACS_PCT_NON_CITIZEN"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10] "ACS_PCT_CTZ_NATURALIZED"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11] "ACS_PCT_CTZ_ABOVE18"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [12] "ACS_PCT_ENGL_NOT_ALL"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [20] "ACS_PCT_HH_NO_COMP_DEV"           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [21] "ACS_PCT_HH_SMARTPHONE"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [22] "ACS_PCT_HH_TABLET"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [23] "ACS_PCT_HH_PC"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [26] "ACS_PCT_HH_BROADBAND_ANY"         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [27] "ACS_PCT_HH_CELLULAR"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [28] "ACS_PCT_HH_NO_INTERNET"           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [29] "ACS_PCT_HH_SAT_INTERNET"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [30] "ACS_PCT_HH_DIAL_INTERNET_ONLY"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [31] "ACS_PCT_ADMIN"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32] "ACS_PCT_ART"                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [33] "ACS_PCT_CONSTRUCT"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [34] "ACS_PCT_EDUC"                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [35] "ACS_PCT_FINANCE"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [36] "ACS_PCT_GOVT"                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [37] "ACS_PCT_INFORM"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [38] "ACS_PCT_MANUFACT"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [39] "ACS_PCT_NATURE"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [40] "ACS_PCT_OTHER"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [41] "ACS_PCT_PROFESS"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [42] "ACS_PCT_PVT_NONPROFIT"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [43] "ACS_PCT_RETAIL"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [44] "ACS_PCT_TRANSPORT"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [45] "ACS_PCT_WHOLESALE"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [47] "ACS_PCT_UNEMPLOY"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48] "ACS_GINI_INDEX"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [49] "ACS_PCT_HH_INC_10000"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [50] "ACS_PCT_HH_INC_100000"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [51] "ACS_PCT_HH_INC_14999"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [52] "ACS_PCT_HH_INC_24999"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [53] "ACS_PCT_HH_INC_49999"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [54] "pct_hh_inc_99999"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [55] "ACS_PER_CAPITA_INC"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [56] "ACS_MEDIAN_HOME_VALUE"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [57] "ACS_MEDIAN_RENT"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [58] "ACS_PCT_VACANT_HU"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [59] "ACS_PCT_COMMT_15MIN"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [60] "ACS_PCT_COMMT_29MIN"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [61] "ACS_PCT_COMMT_59MIN"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [62] "ACS_PCT_COMMT_60MINUP"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [63] "ACS_PCT_PUBL_TRANSIT"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [64] "ACS_PCT_MEDICAID_ANY"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [65] "pct_w_medicare"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [66] "AHRF_ADV_NURSES_RATE"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [69] "AHRF_NURSE_ANESTH_RATE"           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [70] "AHRF_NURSE_MIDWIVES_RATE"         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [71] "AHRF_NURSE_PRACT_RATE"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [73] "AMFAR_SSP_RATE"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [74] "AMFAR_MEDSAFAC_RATE"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [76] "CEN_AREALAND_SQM_COUNTY"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [79] "EPAA_2NDMAX_CO_1HR"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80] "EPAA_98PR_NO2_1HR"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [81] "EPAA_MAX_PB_3MON"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [82] "EPAA_98PR_PM25_DAILY"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [83] "EPAA_99PR_SO2_1HR"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [85] "SAIPE_PCT_POV"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [86] "LTC_AVG_OBS_REHOSP_RATE"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [87] "LTC_AVG_OBS_SUCCESSFUL_DISC_RATE" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [88] "MGV_PER_CAPITA_STD_IP"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [89] "MGV_PER_CAPITA_STD_OP"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [90] "MGV_PER_CAPITA_STD_EM"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [91] "MGV_PER_CAPITA_STD_PA"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [92] "MGV_PER_CAPITA_STD_HC"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [94] "POS_MEDIAN_DIST_MEDSURG_ICU"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [95] "POS_MEDIAN_DIST_TRAUMA"           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [97] "POS_MEDIAN_DIST_OBSTETRICS"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[101] "pct_poor_to_fair_health"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[102] "v042_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[103] "v037_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[104] "pct_adult_smokers"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[105] "pct_obese_adults"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[106] "v133_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[107] "pct_no_exercise"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[108] "v132_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[109] "pct_binge_drinkers"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[110] "v014_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[111] "pct_under_65_no_health_insurance" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[112] "v062_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[113] "v050_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[114] "v155_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[115] "pct_highschool_diploma"           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[116] "pct_some_college"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[117] "v023_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[118] "v024_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[119] "inequality_ratio"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[120] "social_clubs_per_10k"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[121] "v135_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[122] "air_polution_metric"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[123] "water_quality"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[124] "pct_high_housing_costs"           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[125] "pct_overcrowded_hh"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[126] "v136_other_data_3"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[127] "pct_30_min_plus_commute"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[128] "life_expectancy_years"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[129] "v127_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[130] "v128_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[131] "v129_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[132] "v144_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[133] "v061_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[134] "pct_food_insecurities"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[135] "v138_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[136] "v143_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[137] "v021_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[138] "v149_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[139] "v159_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[140] "v160_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[141] "v167_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[142] "v169_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[143] "v151_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[144] "hourly_living_wage"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[145] "v065_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[146] "v141_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[147] "v171_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[148] "v015_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[149] "v161_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[150] "v148_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[151] "v158_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[152] "pct_voters"                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[153] "v156_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[154] "pct_home_owner"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[155] "v052_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[156] "pct_65_plus"                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[157] "pct_rural_population"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[158] "v005_rawvalue"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[159] "pcp_pt"                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[160] "response"    </t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1572,6 +1969,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1620,7 +2023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1637,6 +2040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4180,159 +4584,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBD7AD60-05CC-44FA-8B05-3561A3EF46C7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item x="0"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="24"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="27"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="26"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="30">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D36BEFFD-790E-4E3F-A8AB-13F04820DE4C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O3:O56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
@@ -4553,6 +4804,159 @@
     </i>
     <i>
       <x v="51"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBD7AD60-05CC-44FA-8B05-3561A3EF46C7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item x="0"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="24"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="27"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -5970,6 +6374,824 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08FF96B-8BBF-49C9-8E9A-00E633ACAB23}">
+  <dimension ref="A2:A161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:A126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36D6385-0F86-4053-BD35-180D738022C0}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -13566,8 +14788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE23EB-EF09-49D9-9AAE-D8B309C5C830}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13775,7 +14997,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
         <v>484</v>
